--- a/project report.xlsx
+++ b/project report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>S.no</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>introduction to API,documentation-responses,authentication,searched videos for API</t>
+  </si>
+  <si>
+    <t>02.01.2018</t>
+  </si>
+  <si>
+    <t>project structural flow,process flow,api documentation</t>
   </si>
 </sst>
 </file>
@@ -544,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,6 +866,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/project report.xlsx
+++ b/project report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>S.no</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>project structural flow,process flow,api documentation</t>
+  </si>
+  <si>
+    <t>03.01.2018</t>
+  </si>
+  <si>
+    <t>8.30 to4.45</t>
+  </si>
+  <si>
+    <t>php queries,attend chatbot class,json</t>
   </si>
 </sst>
 </file>
@@ -550,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,6 +895,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/project report.xlsx
+++ b/project report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>S.no</t>
   </si>
@@ -148,10 +148,16 @@
     <t>03.01.2018</t>
   </si>
   <si>
-    <t>8.30 to4.45</t>
-  </si>
-  <si>
     <t>php queries,attend chatbot class,json</t>
+  </si>
+  <si>
+    <t>04.01.2018</t>
+  </si>
+  <si>
+    <t>searched videos for API connection,json</t>
+  </si>
+  <si>
+    <t>8.40 to 4.45</t>
   </si>
 </sst>
 </file>
@@ -559,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,12 +912,32 @@
         <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>13</v>
       </c>
     </row>

--- a/project report.xlsx
+++ b/project report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>S.no</t>
   </si>
@@ -158,6 +158,45 @@
   </si>
   <si>
     <t>8.40 to 4.45</t>
+  </si>
+  <si>
+    <t>05.01.2018</t>
+  </si>
+  <si>
+    <t>8.40 to 1.00</t>
+  </si>
+  <si>
+    <t>preparing process flow</t>
+  </si>
+  <si>
+    <t>08.01.2018</t>
+  </si>
+  <si>
+    <t>8.30 to 3.45</t>
+  </si>
+  <si>
+    <t>connecting bot,JSON with PHP</t>
+  </si>
+  <si>
+    <t>09.01.2018</t>
+  </si>
+  <si>
+    <t>8.30 to 3.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enhancement in flow ,learning php queries </t>
+  </si>
+  <si>
+    <t>29.12.2017</t>
+  </si>
+  <si>
+    <t>10.01.2018</t>
+  </si>
+  <si>
+    <t>11.01.2018</t>
+  </si>
+  <si>
+    <t>bot builder API,bot connector-conversational states</t>
   </si>
 </sst>
 </file>
@@ -565,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,16 +928,14 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -909,13 +946,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>13</v>
@@ -929,15 +966,132 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>13</v>
       </c>
     </row>
